--- a/Benchmarks-results/Prometheus/matrix multiplication wykresy/matrixmul 1 GPU MAX LWS.xlsx
+++ b/Benchmarks-results/Prometheus/matrix multiplication wykresy/matrixmul 1 GPU MAX LWS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>x</t>
   </si>
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>zużycie energii [J]</t>
+  </si>
+  <si>
+    <t>TEMP</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
   </si>
 </sst>
 </file>
@@ -105,6 +114,181 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>minimalna temperatura</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$A$17:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$B$17:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>maksymalna temperatura</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$A$17:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$C$17:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="96072832"/>
+        <c:axId val="96074368"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="96072832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96074368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="96074368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96072832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -395,7 +579,7 @@
   <dimension ref="A2:AV78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1008,6 +1192,9 @@
       <c r="AI14" s="4"/>
     </row>
     <row r="15" spans="1:48">
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
       <c r="G15" s="4">
         <v>0.44074074074074071</v>
       </c>
@@ -1048,6 +1235,15 @@
       <c r="AI15" s="4"/>
     </row>
     <row r="16" spans="1:48">
+      <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
       <c r="G16" s="4">
         <v>0.44075231481481486</v>
       </c>
@@ -1069,7 +1265,18 @@
       <c r="Y16" s="4"/>
       <c r="AI16" s="4"/>
     </row>
-    <row r="17" spans="7:35">
+    <row r="17" spans="1:35">
+      <c r="A17">
+        <v>4096</v>
+      </c>
+      <c r="B17">
+        <f>MIN(AA6:AA8)</f>
+        <v>38</v>
+      </c>
+      <c r="C17">
+        <f>MAX(AA6:AA8)</f>
+        <v>43</v>
+      </c>
       <c r="G17" s="4">
         <v>0.4407638888888889</v>
       </c>
@@ -1091,7 +1298,18 @@
       <c r="Y17" s="4"/>
       <c r="AI17" s="4"/>
     </row>
-    <row r="18" spans="7:35">
+    <row r="18" spans="1:35">
+      <c r="A18">
+        <v>8192</v>
+      </c>
+      <c r="B18">
+        <f>MIN(S6:S15)</f>
+        <v>38</v>
+      </c>
+      <c r="C18">
+        <f>MAX(S6:S15)</f>
+        <v>48</v>
+      </c>
       <c r="G18" s="4">
         <v>0.44077546296296299</v>
       </c>
@@ -1112,7 +1330,18 @@
       </c>
       <c r="Y18" s="4"/>
     </row>
-    <row r="19" spans="7:35">
+    <row r="19" spans="1:35">
+      <c r="A19">
+        <v>16384</v>
+      </c>
+      <c r="B19">
+        <f>MIN(J6:J73)</f>
+        <v>38</v>
+      </c>
+      <c r="C19">
+        <f>MAX(J9:J76)</f>
+        <v>59</v>
+      </c>
       <c r="G19" s="4">
         <v>0.44078703703703703</v>
       </c>
@@ -1133,7 +1362,7 @@
       </c>
       <c r="Y19" s="4"/>
     </row>
-    <row r="20" spans="7:35">
+    <row r="20" spans="1:35">
       <c r="G20" s="4">
         <v>0.44079861111111113</v>
       </c>
@@ -1154,7 +1383,7 @@
       </c>
       <c r="Y20" s="4"/>
     </row>
-    <row r="21" spans="7:35">
+    <row r="21" spans="1:35">
       <c r="G21" s="4">
         <v>0.44081018518518517</v>
       </c>
@@ -1175,7 +1404,7 @@
       </c>
       <c r="Y21" s="4"/>
     </row>
-    <row r="22" spans="7:35">
+    <row r="22" spans="1:35">
       <c r="G22" s="4">
         <v>0.4408217592592592</v>
       </c>
@@ -1196,7 +1425,7 @@
       </c>
       <c r="Y22" s="4"/>
     </row>
-    <row r="23" spans="7:35">
+    <row r="23" spans="1:35">
       <c r="G23" s="4">
         <v>0.44083333333333335</v>
       </c>
@@ -1217,7 +1446,7 @@
       </c>
       <c r="Y23" s="4"/>
     </row>
-    <row r="24" spans="7:35">
+    <row r="24" spans="1:35">
       <c r="G24" s="4">
         <v>0.44084490740740739</v>
       </c>
@@ -1238,7 +1467,7 @@
       </c>
       <c r="Y24" s="4"/>
     </row>
-    <row r="25" spans="7:35">
+    <row r="25" spans="1:35">
       <c r="G25" s="4">
         <v>0.44085648148148149</v>
       </c>
@@ -1259,7 +1488,7 @@
       </c>
       <c r="Y25" s="4"/>
     </row>
-    <row r="26" spans="7:35">
+    <row r="26" spans="1:35">
       <c r="G26" s="4">
         <v>0.44086805555555553</v>
       </c>
@@ -1280,7 +1509,7 @@
       </c>
       <c r="Y26" s="4"/>
     </row>
-    <row r="27" spans="7:35">
+    <row r="27" spans="1:35">
       <c r="G27" s="4">
         <v>0.44087962962962962</v>
       </c>
@@ -1301,7 +1530,7 @@
       </c>
       <c r="Y27" s="4"/>
     </row>
-    <row r="28" spans="7:35">
+    <row r="28" spans="1:35">
       <c r="G28" s="4">
         <v>0.44089120370370366</v>
       </c>
@@ -1322,7 +1551,7 @@
       </c>
       <c r="Y28" s="4"/>
     </row>
-    <row r="29" spans="7:35">
+    <row r="29" spans="1:35">
       <c r="G29" s="4">
         <v>0.44090277777777781</v>
       </c>
@@ -1343,7 +1572,7 @@
       </c>
       <c r="Y29" s="4"/>
     </row>
-    <row r="30" spans="7:35">
+    <row r="30" spans="1:35">
       <c r="G30" s="4">
         <v>0.44091435185185185</v>
       </c>
@@ -1364,7 +1593,7 @@
       </c>
       <c r="Y30" s="4"/>
     </row>
-    <row r="31" spans="7:35">
+    <row r="31" spans="1:35">
       <c r="G31" s="4">
         <v>0.44092592592592594</v>
       </c>
@@ -1385,7 +1614,7 @@
       </c>
       <c r="Y31" s="4"/>
     </row>
-    <row r="32" spans="7:35">
+    <row r="32" spans="1:35">
       <c r="G32" s="4">
         <v>0.44093749999999998</v>
       </c>
@@ -2285,6 +2514,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
